--- a/group-reports/tables/sharif-results-after-queue.xlsx
+++ b/group-reports/tables/sharif-results-after-queue.xlsx
@@ -722,12 +722,12 @@
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>705</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>933725</t>
+          <t>954155</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
@@ -844,12 +844,12 @@
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>554</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>886743</t>
+          <t>908831</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr">
@@ -966,12 +966,12 @@
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>538</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>733696</t>
+          <t>722227</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>529</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>538683</t>
+          <t>530561</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
@@ -1210,12 +1210,12 @@
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>557</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>734984</t>
+          <t>789674</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr">
@@ -1332,12 +1332,12 @@
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>853</t>
         </is>
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
-          <t>791975</t>
+          <t>885596</t>
         </is>
       </c>
       <c r="Q8" s="1" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>943</t>
         </is>
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
-          <t>768259</t>
+          <t>750585</t>
         </is>
       </c>
       <c r="Q9" s="1" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>387</t>
         </is>
       </c>
       <c r="P10" s="1" t="inlineStr">
         <is>
-          <t>790105</t>
+          <t>814129</t>
         </is>
       </c>
       <c r="Q10" s="1" t="inlineStr">
@@ -1698,12 +1698,12 @@
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>513</t>
         </is>
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t>808883</t>
+          <t>822893</t>
         </is>
       </c>
       <c r="Q11" s="1" t="inlineStr">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>536</t>
         </is>
       </c>
       <c r="P12" s="1" t="inlineStr">
         <is>
-          <t>1024.8k</t>
+          <t>1024.9k</t>
         </is>
       </c>
       <c r="Q12" s="1" t="inlineStr">
@@ -1942,12 +1942,12 @@
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>581</t>
         </is>
       </c>
       <c r="P13" s="1" t="inlineStr">
         <is>
-          <t>871044</t>
+          <t>1371.2k</t>
         </is>
       </c>
       <c r="Q13" s="1" t="inlineStr">
@@ -2064,12 +2064,12 @@
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>819</t>
         </is>
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
-          <t>675517</t>
+          <t>658730</t>
         </is>
       </c>
       <c r="Q14" s="1" t="inlineStr">

--- a/group-reports/tables/sharif-results-after-queue.xlsx
+++ b/group-reports/tables/sharif-results-after-queue.xlsx
@@ -732,7 +732,7 @@
       </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
-          <t>9245.31</t>
+          <t>18190.34</t>
         </is>
       </c>
       <c r="R3" s="1" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="Q4" s="1" t="inlineStr">
         <is>
-          <t>9812.00</t>
+          <t>17030.91</t>
         </is>
       </c>
       <c r="R4" s="1" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="Q5" s="1" t="inlineStr">
         <is>
-          <t>15282.62</t>
+          <t>24652.88</t>
         </is>
       </c>
       <c r="R5" s="1" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="Q6" s="1" t="inlineStr">
         <is>
-          <t>11672.45</t>
+          <t>14160.39</t>
         </is>
       </c>
       <c r="R6" s="1" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="Q7" s="1" t="inlineStr">
         <is>
-          <t>13283.99</t>
+          <t>21043.53</t>
         </is>
       </c>
       <c r="R7" s="1" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="Q8" s="1" t="inlineStr">
         <is>
-          <t>12153.99</t>
+          <t>10547.53</t>
         </is>
       </c>
       <c r="R8" s="1" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="Q9" s="1" t="inlineStr">
         <is>
-          <t>10283.85</t>
+          <t>14411.72</t>
         </is>
       </c>
       <c r="R9" s="1" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="Q10" s="1" t="inlineStr">
         <is>
-          <t>10784.61</t>
+          <t>22075.29</t>
         </is>
       </c>
       <c r="R10" s="1" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="Q11" s="1" t="inlineStr">
         <is>
-          <t>11405.61</t>
+          <t>19241.00</t>
         </is>
       </c>
       <c r="R11" s="1" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="Q12" s="1" t="inlineStr">
         <is>
-          <t>15048.19</t>
+          <t>17032.48</t>
         </is>
       </c>
       <c r="R12" s="1" t="inlineStr">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="Q13" s="1" t="inlineStr">
         <is>
-          <t>34948.63</t>
+          <t>91878.19</t>
         </is>
       </c>
       <c r="R13" s="1" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="Q14" s="1" t="inlineStr">
         <is>
-          <t>11035.21</t>
+          <t>15225.24</t>
         </is>
       </c>
       <c r="R14" s="1" t="inlineStr">
